--- a/raw_data/20200818_saline/20200818_Sensor2_Test_38.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_38.xlsx
@@ -1,4438 +1,4854 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169F682-BF06-437A-8851-A3E20E754F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>33670.814719</v>
+        <v>33670.814719000002</v>
       </c>
       <c r="B2" s="1">
-        <v>9.353004</v>
+        <v>9.3530040000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1241.930000</v>
+        <v>1241.93</v>
       </c>
       <c r="D2" s="1">
-        <v>-289.991000</v>
+        <v>-289.99099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>33681.215824</v>
+        <v>33681.215823999999</v>
       </c>
       <c r="G2" s="1">
         <v>9.355893</v>
       </c>
       <c r="H2" s="1">
-        <v>1266.460000</v>
+        <v>1266.46</v>
       </c>
       <c r="I2" s="1">
-        <v>-253.480000</v>
+        <v>-253.48</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>33691.633332</v>
+        <v>33691.633331999998</v>
       </c>
       <c r="L2" s="1">
-        <v>9.358787</v>
+        <v>9.3587869999999995</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.367000</v>
+        <v>-199.36699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>33702.136580</v>
+        <v>33702.136579999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.361705</v>
+        <v>9.3617050000000006</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.292000</v>
+        <v>-183.292</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>33713.032739</v>
+        <v>33713.032739000002</v>
       </c>
       <c r="V2" s="1">
-        <v>9.364731</v>
+        <v>9.3647310000000008</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.130000</v>
+        <v>1333.13</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.829000</v>
+        <v>-170.82900000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>33723.461293</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.367628</v>
+        <v>9.3676279999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.680000</v>
+        <v>1351.68</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.292000</v>
+        <v>-169.292</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>33734.251082</v>
+        <v>33734.251082000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.370625</v>
+        <v>9.3706250000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>1365.140000</v>
+        <v>1365.14</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.127000</v>
+        <v>-179.12700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>33744.680925</v>
+        <v>33744.680925000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.373522</v>
+        <v>9.3735219999999995</v>
       </c>
       <c r="AL2" s="1">
-        <v>1386.200000</v>
+        <v>1386.2</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.034000</v>
+        <v>-209.03399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>33755.244258</v>
+        <v>33755.244257999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.376457</v>
+        <v>9.3764570000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.855000</v>
+        <v>-252.85499999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>33766.603104</v>
+        <v>33766.603104000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.379612</v>
+        <v>9.3796119999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.870000</v>
+        <v>-312.87</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>33777.946113</v>
+        <v>33777.946112999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.382763</v>
+        <v>9.3827630000000006</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.007000</v>
+        <v>-365.00700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>33788.965234</v>
+        <v>33788.965234000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.385824</v>
+        <v>9.3858239999999995</v>
       </c>
       <c r="BF2" s="1">
-        <v>1536.980000</v>
+        <v>1536.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.712000</v>
+        <v>-613.71199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>33799.591526</v>
+        <v>33799.591525999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.388775</v>
+        <v>9.3887750000000008</v>
       </c>
       <c r="BK2" s="1">
-        <v>1690.800000</v>
+        <v>1690.8</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>33810.374055</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.391771</v>
+        <v>9.3917710000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1984.070000</v>
+        <v>1984.07</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1834.810000</v>
+        <v>-1834.81</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>33821.110951</v>
+        <v>33821.110951000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.394753</v>
+        <v>9.3947529999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>2371.690000</v>
+        <v>2371.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2728.600000</v>
+        <v>-2728.6</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>33832.506075</v>
+        <v>33832.506074999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.397918</v>
+        <v>9.3979180000000007</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.340000</v>
+        <v>2853.34</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3709.960000</v>
+        <v>-3709.96</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>33843.446299</v>
+        <v>33843.446299000003</v>
       </c>
       <c r="CD2" s="1">
         <v>9.400957</v>
       </c>
       <c r="CE2" s="1">
-        <v>4284.200000</v>
+        <v>4284.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6073.270000</v>
+        <v>-6073.27</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>33671.196141</v>
       </c>
       <c r="B3" s="1">
-        <v>9.353110</v>
+        <v>9.3531099999999991</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-289.707000</v>
+        <v>-289.70699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>33681.558065</v>
+        <v>33681.558064999997</v>
       </c>
       <c r="G3" s="1">
         <v>9.355988</v>
       </c>
       <c r="H3" s="1">
-        <v>1267.550000</v>
+        <v>1267.55</v>
       </c>
       <c r="I3" s="1">
-        <v>-254.593000</v>
+        <v>-254.59299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>33692.018194</v>
+        <v>33692.018193999997</v>
       </c>
       <c r="L3" s="1">
-        <v>9.358894</v>
+        <v>9.3588939999999994</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.582000</v>
+        <v>-199.58199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>33702.867225</v>
+        <v>33702.867225000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.361908</v>
+        <v>9.3619079999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.222000</v>
+        <v>-183.22200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>33713.411143</v>
+        <v>33713.411142999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.364836</v>
+        <v>9.3648360000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.950000</v>
+        <v>1332.95</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.997000</v>
+        <v>-170.99700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>33723.849480</v>
+        <v>33723.849479999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.367736</v>
+        <v>9.3677360000000007</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.680000</v>
+        <v>1351.68</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.372000</v>
+        <v>-169.37200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>33734.616634</v>
+        <v>33734.616633999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.370727</v>
+        <v>9.3707270000000005</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.100000</v>
+        <v>1365.1</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.115000</v>
+        <v>-179.11500000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33745.039534</v>
+        <v>33745.039534000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.373622</v>
+        <v>9.3736219999999992</v>
       </c>
       <c r="AL3" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.018000</v>
+        <v>-209.018</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>33755.959977</v>
+        <v>33755.959976999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.376656</v>
+        <v>9.3766560000000005</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.909000</v>
+        <v>-252.90899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>33767.038590</v>
+        <v>33767.038589999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.379733</v>
+        <v>9.3797329999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.870000</v>
+        <v>-312.87</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>33778.362256</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.382878</v>
+        <v>9.3828779999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.986000</v>
+        <v>-364.98599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>33789.330821</v>
+        <v>33789.330821000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.385925</v>
+        <v>9.3859250000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1536.990000</v>
+        <v>1536.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.717000</v>
+        <v>-613.71699999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>33799.982371</v>
+        <v>33799.982370999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.388884</v>
+        <v>9.3888839999999991</v>
       </c>
       <c r="BK3" s="1">
-        <v>1690.690000</v>
+        <v>1690.69</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.180000</v>
+        <v>-1060.18</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>33810.777799</v>
+        <v>33810.777799000003</v>
       </c>
       <c r="BO3" s="1">
         <v>9.391883</v>
       </c>
       <c r="BP3" s="1">
-        <v>1983.640000</v>
+        <v>1983.64</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1834.940000</v>
+        <v>-1834.94</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>33821.618360</v>
+        <v>33821.61836</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.394894</v>
+        <v>9.3948940000000007</v>
       </c>
       <c r="BU3" s="1">
-        <v>2371.960000</v>
+        <v>2371.96</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2728.950000</v>
+        <v>-2728.95</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>33832.679641</v>
+        <v>33832.679641000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.397967</v>
+        <v>9.3979669999999995</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2852.970000</v>
+        <v>2852.97</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3710.810000</v>
+        <v>-3710.81</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>33843.736986</v>
+        <v>33843.736986000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.401038</v>
+        <v>9.4010379999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4271.220000</v>
+        <v>4271.22</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6064.250000</v>
+        <v>-6064.25</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>33671.539374</v>
       </c>
       <c r="B4" s="1">
-        <v>9.353205</v>
+        <v>9.3532050000000009</v>
       </c>
       <c r="C4" s="1">
-        <v>1241.910000</v>
+        <v>1241.9100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-289.877000</v>
+        <v>-289.87700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>33682.248495</v>
       </c>
       <c r="G4" s="1">
-        <v>9.356180</v>
+        <v>9.3561800000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="I4" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>33692.711105</v>
+        <v>33692.711105000002</v>
       </c>
       <c r="L4" s="1">
-        <v>9.359086</v>
+        <v>9.3590859999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.150000</v>
+        <v>1305.1500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-199.062000</v>
+        <v>-199.06200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>33703.218888</v>
+        <v>33703.218888000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.362005</v>
+        <v>9.3620049999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.327000</v>
+        <v>-183.327</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>33713.752389</v>
+        <v>33713.752389000001</v>
       </c>
       <c r="V4" s="1">
-        <v>9.364931</v>
+        <v>9.3649310000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.940000</v>
+        <v>1332.94</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.850000</v>
+        <v>-170.85</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>33724.420379</v>
+        <v>33724.420379000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.367895</v>
+        <v>9.3678950000000007</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.780000</v>
+        <v>1351.78</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.258000</v>
+        <v>-169.25800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>33735.260942</v>
+        <v>33735.260942000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.370906</v>
+        <v>9.3709059999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>1365.130000</v>
+        <v>1365.13</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.099000</v>
+        <v>-179.09899999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>33745.701197</v>
+        <v>33745.701197000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.373806</v>
+        <v>9.3738060000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1386.210000</v>
+        <v>1386.21</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.000000</v>
+        <v>-209</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>33756.365181</v>
+        <v>33756.365181000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.376768</v>
+        <v>9.3767680000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.841000</v>
+        <v>-252.84100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>33767.398688</v>
+        <v>33767.398688000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.379833</v>
+        <v>9.3798329999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.871000</v>
+        <v>-312.87099999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>33778.733762</v>
+        <v>33778.733762000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.382982</v>
+        <v>9.3829820000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.976000</v>
+        <v>-364.976</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>33789.691377</v>
+        <v>33789.691377000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.386025</v>
+        <v>9.3860250000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.040000</v>
+        <v>1537.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.701000</v>
+        <v>-613.70100000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>33800.399043</v>
+        <v>33800.399042999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.389000</v>
+        <v>9.3889999999999993</v>
       </c>
       <c r="BK4" s="1">
-        <v>1690.650000</v>
+        <v>1690.65</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1060.150000</v>
+        <v>-1060.1500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>33811.202374</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.392001</v>
+        <v>9.3920010000000005</v>
       </c>
       <c r="BP4" s="1">
-        <v>1983.870000</v>
+        <v>1983.87</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1834.880000</v>
+        <v>-1834.88</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>33822.053381</v>
+        <v>33822.053380999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.395015</v>
+        <v>9.3950150000000008</v>
       </c>
       <c r="BU4" s="1">
-        <v>2372.030000</v>
+        <v>2372.0300000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2729.500000</v>
+        <v>-2729.5</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>33833.115160</v>
+        <v>33833.115160000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.398088</v>
+        <v>9.3980879999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.060000</v>
+        <v>2853.06</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3710.270000</v>
+        <v>-3710.27</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>33844.256265</v>
+        <v>33844.256265000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.401182</v>
+        <v>9.4011820000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>4271.240000</v>
+        <v>4271.24</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6089.160000</v>
+        <v>-6089.16</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>33672.222364</v>
+        <v>33672.222364000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.353395</v>
+        <v>9.3533950000000008</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.060000</v>
+        <v>1242.06</v>
       </c>
       <c r="D5" s="1">
-        <v>-289.943000</v>
+        <v>-289.94299999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>33682.594238</v>
+        <v>33682.594237999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.356276</v>
+        <v>9.3562759999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="I5" s="1">
-        <v>-254.154000</v>
+        <v>-254.154</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>33693.055857</v>
+        <v>33693.055856999999</v>
       </c>
       <c r="L5" s="1">
-        <v>9.359182</v>
+        <v>9.3591820000000006</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.340000</v>
+        <v>1305.3399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.398000</v>
+        <v>-199.398</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>33703.565556</v>
+        <v>33703.565556000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.362102</v>
+        <v>9.3621020000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.288000</v>
+        <v>-183.28800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>33714.408101</v>
+        <v>33714.408101000001</v>
       </c>
       <c r="V5" s="1">
-        <v>9.365113</v>
+        <v>9.3651129999999991</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.070000</v>
+        <v>1333.07</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.872000</v>
+        <v>-170.87200000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>33725.079526</v>
+        <v>33725.079526000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.368078</v>
+        <v>9.3680780000000006</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.157000</v>
+        <v>-169.15700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>33735.647288</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.371013</v>
+        <v>9.3710129999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>1365.140000</v>
+        <v>1365.14</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.075000</v>
+        <v>-179.07499999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>33746.085595</v>
+        <v>33746.085594999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.373913</v>
+        <v>9.3739129999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1386.160000</v>
+        <v>1386.16</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.046000</v>
+        <v>-209.04599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>33756.750076</v>
+        <v>33756.750075999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.376875</v>
+        <v>9.3768750000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.874000</v>
+        <v>-252.874</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>33767.766254</v>
+        <v>33767.766254000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.379935</v>
+        <v>9.3799349999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.887000</v>
+        <v>-312.887</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>33779.413775</v>
+        <v>33779.413775000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.383170</v>
+        <v>9.3831699999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.035000</v>
+        <v>-365.03500000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>33790.110528</v>
+        <v>33790.110527999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.386142</v>
+        <v>9.3861419999999995</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.020000</v>
+        <v>1537.02</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.707000</v>
+        <v>-613.70699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>33800.733842</v>
+        <v>33800.733842000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.389093</v>
+        <v>9.3890930000000008</v>
       </c>
       <c r="BK5" s="1">
-        <v>1690.610000</v>
+        <v>1690.61</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1060.140000</v>
+        <v>-1060.1400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>33811.629428</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.392119</v>
+        <v>9.3921189999999992</v>
       </c>
       <c r="BP5" s="1">
-        <v>1983.730000</v>
+        <v>1983.73</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1835.060000</v>
+        <v>-1835.06</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>33822.467043</v>
+        <v>33822.467042999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.395130</v>
+        <v>9.39513</v>
       </c>
       <c r="BU5" s="1">
-        <v>2372.540000</v>
+        <v>2372.54</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2729.950000</v>
+        <v>-2729.95</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>33833.539740</v>
+        <v>33833.53974</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.398205</v>
+        <v>9.3982050000000008</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.930000</v>
+        <v>2851.93</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3710.680000</v>
+        <v>-3710.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>33844.797896</v>
+        <v>33844.797895999996</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.401333</v>
+        <v>9.4013329999999993</v>
       </c>
       <c r="CE5" s="1">
-        <v>4280.070000</v>
+        <v>4280.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6071.180000</v>
+        <v>-6071.18</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>33672.564137</v>
+        <v>33672.564137000001</v>
       </c>
       <c r="B6" s="1">
-        <v>9.353490</v>
+        <v>9.3534900000000007</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="D6" s="1">
-        <v>-289.574000</v>
+        <v>-289.57400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>33682.940414</v>
+        <v>33682.940413999997</v>
       </c>
       <c r="G6" s="1">
-        <v>9.356372</v>
+        <v>9.3563720000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.510000</v>
+        <v>1267.51</v>
       </c>
       <c r="I6" s="1">
-        <v>-253.909000</v>
+        <v>-253.90899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>33693.403521</v>
       </c>
       <c r="L6" s="1">
-        <v>9.359279</v>
+        <v>9.3592790000000008</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-199.507000</v>
+        <v>-199.50700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>33704.223289</v>
+        <v>33704.223289000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.362284</v>
+        <v>9.3622840000000007</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.199000</v>
+        <v>-183.19900000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>33714.781588</v>
+        <v>33714.781587999998</v>
       </c>
       <c r="V6" s="1">
-        <v>9.365217</v>
+        <v>9.3652169999999995</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.836000</v>
+        <v>-170.83600000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>33725.472886</v>
+        <v>33725.472886000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.368187</v>
+        <v>9.3681870000000007</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.369000</v>
+        <v>-169.369</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>33735.992009</v>
+        <v>33735.992009000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.371109</v>
+        <v>9.3711090000000006</v>
       </c>
       <c r="AG6" s="1">
-        <v>1365.120000</v>
+        <v>1365.12</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.113000</v>
+        <v>-179.113</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>33746.433786</v>
+        <v>33746.433786000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.374009</v>
+        <v>9.3740089999999991</v>
       </c>
       <c r="AL6" s="1">
-        <v>1386.180000</v>
+        <v>1386.18</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.040000</v>
+        <v>-209.04</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>33757.133485</v>
+        <v>33757.133484999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.376982</v>
+        <v>9.3769819999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.856000</v>
+        <v>-252.85599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>33768.194270</v>
+        <v>33768.19427</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.380054</v>
+        <v>9.3800539999999994</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.856000</v>
+        <v>-312.85599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>33779.799167</v>
+        <v>33779.799166999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.383278</v>
+        <v>9.3832780000000007</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.006000</v>
+        <v>-365.00599999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>33790.412096</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.386226</v>
+        <v>9.3862260000000006</v>
       </c>
       <c r="BF6" s="1">
-        <v>1536.970000</v>
+        <v>1536.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.686000</v>
+        <v>-613.68600000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>33801.109779</v>
+        <v>33801.109778999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.389197</v>
+        <v>9.3891969999999993</v>
       </c>
       <c r="BK6" s="1">
-        <v>1690.660000</v>
+        <v>1690.66</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1060.170000</v>
+        <v>-1060.17</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>33812.023749</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.392229</v>
+        <v>9.3922290000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1983.590000</v>
+        <v>1983.59</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1835.000000</v>
+        <v>-1835</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>33822.898073</v>
+        <v>33822.898072999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.395249</v>
+        <v>9.3952489999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>2372.220000</v>
+        <v>2372.2199999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2730.590000</v>
+        <v>-2730.59</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>33833.961800</v>
+        <v>33833.961799999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.398323</v>
+        <v>9.3983229999999995</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2851.650000</v>
+        <v>2851.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3710.410000</v>
+        <v>-3710.41</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>33845.336552</v>
+        <v>33845.336552000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.401482</v>
+        <v>9.4014819999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>4262.800000</v>
+        <v>4262.8</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6075.380000</v>
+        <v>-6075.38</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>33672.905851</v>
+        <v>33672.905851000003</v>
       </c>
       <c r="B7" s="1">
-        <v>9.353585</v>
+        <v>9.3535850000000007</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.490000</v>
+        <v>1242.49</v>
       </c>
       <c r="D7" s="1">
-        <v>-289.985000</v>
+        <v>-289.98500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>33683.591692</v>
+        <v>33683.591692000002</v>
       </c>
       <c r="G7" s="1">
-        <v>9.356553</v>
+        <v>9.3565529999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="I7" s="1">
-        <v>-253.943000</v>
+        <v>-253.94300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>33694.060719</v>
+        <v>33694.060719000001</v>
       </c>
       <c r="L7" s="1">
-        <v>9.359461</v>
+        <v>9.3594609999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.984000</v>
+        <v>-199.98400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>33704.612790</v>
+        <v>33704.612789999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.362392</v>
+        <v>9.3623919999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.199000</v>
+        <v>-183.19900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>33715.125813</v>
+        <v>33715.125812999999</v>
       </c>
       <c r="V7" s="1">
-        <v>9.365313</v>
+        <v>9.3653130000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.030000</v>
+        <v>1333.03</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.751000</v>
+        <v>-170.751</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>33725.820055</v>
+        <v>33725.820054999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.368283</v>
+        <v>9.3682829999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.470000</v>
+        <v>1351.47</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.552000</v>
+        <v>-169.55199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>33736.325816</v>
+        <v>33736.325815999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.371202</v>
+        <v>9.3712020000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1365.170000</v>
+        <v>1365.17</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.139000</v>
+        <v>-179.13900000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>33746.846953</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.374124</v>
+        <v>9.3741240000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1386.200000</v>
+        <v>1386.2</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.025000</v>
+        <v>-209.02500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>33757.551611</v>
+        <v>33757.551611000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.377098</v>
+        <v>9.3770980000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.890000</v>
+        <v>-252.89</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>33768.493389</v>
+        <v>33768.493389000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.380137</v>
+        <v>9.3801369999999995</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>33780.157775</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.383377</v>
+        <v>9.3833769999999994</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.002000</v>
+        <v>-365.00200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>33790.763232</v>
+        <v>33790.763231999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.386323</v>
+        <v>9.3863230000000009</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.010000</v>
+        <v>1537.01</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.701000</v>
+        <v>-613.70100000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>33801.512562</v>
+        <v>33801.512562000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.389309</v>
+        <v>9.3893090000000008</v>
       </c>
       <c r="BK7" s="1">
-        <v>1690.600000</v>
+        <v>1690.6</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>33812.453141</v>
+        <v>33812.453140999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.392348</v>
+        <v>9.3923480000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1983.590000</v>
+        <v>1983.59</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1834.960000</v>
+        <v>-1834.96</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>33823.324634</v>
+        <v>33823.324633999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.395368</v>
+        <v>9.3953679999999995</v>
       </c>
       <c r="BU7" s="1">
-        <v>2372.360000</v>
+        <v>2372.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2731.070000</v>
+        <v>-2731.07</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>33834.410707</v>
+        <v>33834.410707000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.398447</v>
+        <v>9.3984470000000009</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.530000</v>
+        <v>2852.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3710.060000</v>
+        <v>-3710.06</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>33845.881158</v>
+        <v>33845.881157999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.401634</v>
+        <v>9.4016339999999996</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.800000</v>
+        <v>4280.8</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6084.200000</v>
+        <v>-6084.2</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>33673.559110</v>
+        <v>33673.559110000002</v>
       </c>
       <c r="B8" s="1">
-        <v>9.353766</v>
+        <v>9.3537660000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.930000</v>
+        <v>1241.93</v>
       </c>
       <c r="D8" s="1">
-        <v>-289.825000</v>
+        <v>-289.82499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>33683.975565</v>
+        <v>33683.975565000001</v>
       </c>
       <c r="G8" s="1">
-        <v>9.356660</v>
+        <v>9.3566599999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1267.470000</v>
+        <v>1267.47</v>
       </c>
       <c r="I8" s="1">
-        <v>-252.876000</v>
+        <v>-252.876</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>33694.436191</v>
+        <v>33694.436191000001</v>
       </c>
       <c r="L8" s="1">
-        <v>9.359566</v>
+        <v>9.3595659999999992</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.310000</v>
+        <v>1305.31</v>
       </c>
       <c r="N8" s="1">
-        <v>-199.733000</v>
+        <v>-199.733</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>33704.959843</v>
+        <v>33704.959842999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.362489</v>
+        <v>9.3624890000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.272000</v>
+        <v>-183.27199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>33715.472019</v>
+        <v>33715.472019000001</v>
       </c>
       <c r="V8" s="1">
-        <v>9.365409</v>
+        <v>9.3654089999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.774000</v>
+        <v>-170.774</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>33726.170758</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.368381</v>
+        <v>9.3683809999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.510000</v>
+        <v>1351.51</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.319000</v>
+        <v>-169.31899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>33736.754855</v>
+        <v>33736.754854999999</v>
       </c>
       <c r="AF8" s="1">
         <v>9.371321</v>
       </c>
       <c r="AG8" s="1">
-        <v>1365.200000</v>
+        <v>1365.2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.080000</v>
+        <v>-179.08</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>33747.147065</v>
+        <v>33747.147064999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.374208</v>
+        <v>9.3742079999999994</v>
       </c>
       <c r="AL8" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.042000</v>
+        <v>-209.042</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>33757.855660</v>
+        <v>33757.855660000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.377182</v>
+        <v>9.3771819999999995</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1408.040000</v>
+        <v>1408.04</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.862000</v>
+        <v>-252.86199999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>33768.861885</v>
+        <v>33768.861884999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.380239</v>
+        <v>9.3802389999999995</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.680000</v>
+        <v>1432.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.873000</v>
+        <v>-312.87299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>33780.515921</v>
+        <v>33780.515920999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.383477</v>
+        <v>9.3834769999999992</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.963000</v>
+        <v>-364.96300000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>33791.137215</v>
+        <v>33791.137215000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.386427</v>
+        <v>9.3864269999999994</v>
       </c>
       <c r="BF8" s="1">
-        <v>1536.960000</v>
+        <v>1536.96</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.732000</v>
+        <v>-613.73199999999997</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>33802.257026</v>
+        <v>33802.257025999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.389516</v>
+        <v>9.3895160000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1690.670000</v>
+        <v>1690.67</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1060.130000</v>
+        <v>-1060.1300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>33813.258322</v>
+        <v>33813.258322000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.392572</v>
+        <v>9.3925719999999995</v>
       </c>
       <c r="BP8" s="1">
-        <v>1983.560000</v>
+        <v>1983.56</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1834.770000</v>
+        <v>-1834.77</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>33823.736277</v>
+        <v>33823.736277000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.395482</v>
+        <v>9.3954819999999994</v>
       </c>
       <c r="BU8" s="1">
-        <v>2372.080000</v>
+        <v>2372.08</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2731.560000</v>
+        <v>-2731.56</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>33834.842730</v>
+        <v>33834.842729999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.398567</v>
+        <v>9.3985669999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.930000</v>
+        <v>2851.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3709.890000</v>
+        <v>-3709.89</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>33846.605814</v>
+        <v>33846.605814000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.401835</v>
+        <v>9.4018350000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4263.330000</v>
+        <v>4263.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6082.050000</v>
+        <v>-6082.05</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>33673.931084</v>
+        <v>33673.931084000003</v>
       </c>
       <c r="B9" s="1">
-        <v>9.353870</v>
+        <v>9.3538700000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.960000</v>
+        <v>1241.96</v>
       </c>
       <c r="D9" s="1">
-        <v>-289.830000</v>
+        <v>-289.83</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>33684.319292</v>
       </c>
       <c r="G9" s="1">
-        <v>9.356755</v>
+        <v>9.3567549999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.200000</v>
+        <v>1267.2</v>
       </c>
       <c r="I9" s="1">
-        <v>-253.814000</v>
+        <v>-253.81399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>33694.783392</v>
+        <v>33694.783391999998</v>
       </c>
       <c r="L9" s="1">
-        <v>9.359662</v>
+        <v>9.3596620000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.600000</v>
+        <v>1305.5999999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-199.547000</v>
+        <v>-199.547</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>33705.311013</v>
+        <v>33705.311012999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.362586</v>
+        <v>9.3625860000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.296000</v>
+        <v>-183.29599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>33715.892130</v>
+        <v>33715.89213</v>
       </c>
       <c r="V9" s="1">
-        <v>9.365526</v>
+        <v>9.3655259999999991</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.803000</v>
+        <v>-170.803</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>33726.594357</v>
+        <v>33726.594357000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.368498</v>
+        <v>9.3684980000000007</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.061000</v>
+        <v>-169.06100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>33737.035591</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.371399</v>
+        <v>9.3713990000000003</v>
       </c>
       <c r="AG9" s="1">
-        <v>1365.130000</v>
+        <v>1365.13</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.115000</v>
+        <v>-179.11500000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>33747.496714</v>
+        <v>33747.496714000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.374305</v>
+        <v>9.3743049999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.049000</v>
+        <v>-209.04900000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>33758.210796</v>
+        <v>33758.210795999999</v>
       </c>
       <c r="AP9" s="1">
         <v>9.377281</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.849000</v>
+        <v>-252.84899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>33769.225452</v>
+        <v>33769.225451999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.380340</v>
+        <v>9.3803400000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.680000</v>
+        <v>1432.68</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.926000</v>
+        <v>-312.92599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>33781.233596</v>
+        <v>33781.233595999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.383676</v>
+        <v>9.3836759999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.004000</v>
+        <v>-365.00400000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>33791.858894</v>
+        <v>33791.858893999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.386627</v>
+        <v>9.3866270000000007</v>
       </c>
       <c r="BF9" s="1">
-        <v>1536.970000</v>
+        <v>1536.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.688000</v>
+        <v>-613.68799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>33802.661792</v>
+        <v>33802.661791999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.389628</v>
+        <v>9.3896280000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1690.570000</v>
+        <v>1690.57</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.150000</v>
+        <v>-1060.1500000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>33813.666001</v>
+        <v>33813.666000999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.392685</v>
+        <v>9.3926850000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1983.550000</v>
+        <v>1983.55</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1834.990000</v>
+        <v>-1834.99</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>33824.167831</v>
+        <v>33824.167830999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.395602</v>
+        <v>9.3956020000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>2372.020000</v>
+        <v>2372.02</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2732.030000</v>
+        <v>-2732.03</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>33835.570324</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.398770</v>
+        <v>9.3987700000000007</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.080000</v>
+        <v>2852.08</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3710.210000</v>
+        <v>-3710.21</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>33847.043781</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.401957</v>
+        <v>9.4019569999999995</v>
       </c>
       <c r="CE9" s="1">
-        <v>4263.320000</v>
+        <v>4263.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6085.900000</v>
+        <v>-6085.9</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>33674.272331</v>
       </c>
       <c r="B10" s="1">
-        <v>9.353965</v>
+        <v>9.3539650000000005</v>
       </c>
       <c r="C10" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="D10" s="1">
-        <v>-289.934000</v>
+        <v>-289.93400000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>33684.664549</v>
+        <v>33684.664549000001</v>
       </c>
       <c r="G10" s="1">
-        <v>9.356851</v>
+        <v>9.3568510000000007</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.560000</v>
+        <v>1267.56</v>
       </c>
       <c r="I10" s="1">
-        <v>-254.186000</v>
+        <v>-254.18600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>33695.305182</v>
+        <v>33695.305181999996</v>
       </c>
       <c r="L10" s="1">
         <v>9.359807</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.030000</v>
+        <v>1305.03</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.427000</v>
+        <v>-199.42699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>33705.733084</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.362704</v>
+        <v>9.3627040000000008</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.280000</v>
+        <v>-183.28</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>33716.184275</v>
       </c>
       <c r="V10" s="1">
-        <v>9.365607</v>
+        <v>9.3656070000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.010000</v>
+        <v>1333.01</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.766000</v>
+        <v>-170.76599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>33726.867604</v>
+        <v>33726.867603999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.368574</v>
+        <v>9.3685740000000006</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.172000</v>
+        <v>-169.172</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>33737.379318</v>
+        <v>33737.379317999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.371494</v>
+        <v>9.3714940000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1365.120000</v>
+        <v>1365.12</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.039000</v>
+        <v>-179.03899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>33747.845896</v>
+        <v>33747.845895999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.374402</v>
+        <v>9.3744019999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1386.170000</v>
+        <v>1386.17</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.037000</v>
+        <v>-209.03700000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>33758.569898</v>
+        <v>33758.569898000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.377381</v>
+        <v>9.3773809999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.863000</v>
+        <v>-252.863</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>33770.184251</v>
+        <v>33770.184250999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.380607</v>
+        <v>9.3806069999999995</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.610000</v>
+        <v>1432.61</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.860000</v>
+        <v>-312.86</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>33781.594189</v>
+        <v>33781.594189000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.383776</v>
+        <v>9.3837759999999992</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.982000</v>
+        <v>-364.98200000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>33792.242303</v>
+        <v>33792.242302999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.386734</v>
+        <v>9.3867340000000006</v>
       </c>
       <c r="BF10" s="1">
-        <v>1536.940000</v>
+        <v>1536.94</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.736000</v>
+        <v>-613.73599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>33803.038720</v>
+        <v>33803.038719999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.389733</v>
+        <v>9.3897329999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1690.520000</v>
+        <v>1690.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1060.070000</v>
+        <v>-1060.07</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>33814.380769</v>
+        <v>33814.380769000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.392884</v>
+        <v>9.3928840000000005</v>
       </c>
       <c r="BP10" s="1">
-        <v>1983.630000</v>
+        <v>1983.63</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1835.060000</v>
+        <v>-1835.06</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>33824.896914</v>
+        <v>33824.896913999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.395805</v>
+        <v>9.3958049999999993</v>
       </c>
       <c r="BU10" s="1">
-        <v>2371.520000</v>
+        <v>2371.52</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2732.180000</v>
+        <v>-2732.18</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>33835.714701</v>
+        <v>33835.714700999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.398810</v>
+        <v>9.3988099999999992</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.930000</v>
+        <v>2851.93</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3710.390000</v>
+        <v>-3710.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>33847.474806</v>
+        <v>33847.474805999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.402076</v>
+        <v>9.4020759999999992</v>
       </c>
       <c r="CE10" s="1">
-        <v>4281.850000</v>
+        <v>4281.8500000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6085.000000</v>
+        <v>-6085</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>33674.613578</v>
+        <v>33674.613577999997</v>
       </c>
       <c r="B11" s="1">
-        <v>9.354059</v>
+        <v>9.3540589999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-290.077000</v>
+        <v>-290.077</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>33685.086107</v>
+        <v>33685.086107000003</v>
       </c>
       <c r="G11" s="1">
-        <v>9.356968</v>
+        <v>9.3569680000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.340000</v>
+        <v>1267.3399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-254.352000</v>
+        <v>-254.352</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>33695.474317</v>
       </c>
       <c r="L11" s="1">
-        <v>9.359854</v>
+        <v>9.3598540000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.459000</v>
+        <v>-199.459</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>33706.013318</v>
+        <v>33706.013317999998</v>
       </c>
       <c r="Q11" s="1">
         <v>9.362781</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.293000</v>
+        <v>-183.29300000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>33716.522081</v>
+        <v>33716.522081000003</v>
       </c>
       <c r="V11" s="1">
-        <v>9.365701</v>
+        <v>9.3657009999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.690000</v>
+        <v>-170.69</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>33727.217283</v>
+        <v>33727.217282999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.368671</v>
+        <v>9.3686710000000009</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.770000</v>
+        <v>1351.77</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.365000</v>
+        <v>-169.36500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>33737.722085</v>
+        <v>33737.722085000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.371589</v>
+        <v>9.3715890000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1365.120000</v>
+        <v>1365.12</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>33748.540826</v>
+        <v>33748.540825999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.374595</v>
+        <v>9.3745949999999993</v>
       </c>
       <c r="AL11" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>33759.291262</v>
+        <v>33759.291261999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.377581</v>
+        <v>9.3775809999999993</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1408.030000</v>
+        <v>1408.03</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.872000</v>
+        <v>-252.87200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>33770.564190</v>
+        <v>33770.564189999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.380712</v>
+        <v>9.3807120000000008</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.872000</v>
+        <v>-312.87200000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>33781.953787</v>
+        <v>33781.953786999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.383876</v>
+        <v>9.3838760000000008</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.044000</v>
+        <v>-365.04399999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>33792.605907</v>
+        <v>33792.605906999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.386835</v>
+        <v>9.3868349999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.040000</v>
+        <v>1537.04</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.660000</v>
+        <v>-613.66</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>33803.725678</v>
+        <v>33803.725678000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.389924</v>
+        <v>9.3899240000000006</v>
       </c>
       <c r="BK11" s="1">
-        <v>1690.610000</v>
+        <v>1690.61</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.060000</v>
+        <v>-1060.06</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>33814.490848</v>
+        <v>33814.490848000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.392914</v>
+        <v>9.3929139999999993</v>
       </c>
       <c r="BP11" s="1">
-        <v>1983.570000</v>
+        <v>1983.57</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1834.910000</v>
+        <v>-1834.91</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>33825.039266</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.395844</v>
+        <v>9.3958440000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2371.240000</v>
+        <v>2371.2399999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2732.900000</v>
+        <v>-2732.9</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>33836.141219</v>
+        <v>33836.141218999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.398928</v>
+        <v>9.3989279999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.310000</v>
+        <v>2852.31</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3710.510000</v>
+        <v>-3710.51</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>33847.992133</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.402220</v>
+        <v>9.4022199999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4278.370000</v>
+        <v>4278.37</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6067.820000</v>
+        <v>-6067.82</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>33675.033225</v>
+        <v>33675.033224999999</v>
       </c>
       <c r="B12" s="1">
-        <v>9.354176</v>
+        <v>9.3541760000000007</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-290.023000</v>
+        <v>-290.02300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>33685.358941</v>
+        <v>33685.358940999999</v>
       </c>
       <c r="G12" s="1">
-        <v>9.357044</v>
+        <v>9.3570440000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.230000</v>
+        <v>1268.23</v>
       </c>
       <c r="I12" s="1">
-        <v>-253.453000</v>
+        <v>-253.453</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>33695.820029</v>
+        <v>33695.820029000002</v>
       </c>
       <c r="L12" s="1">
-        <v>9.359950</v>
+        <v>9.3599499999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-199.663000</v>
+        <v>-199.66300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>33706.360511</v>
+        <v>33706.360510999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.362878</v>
+        <v>9.3628780000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.264000</v>
+        <v>-183.26400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>33716.867265</v>
+        <v>33716.867265000001</v>
       </c>
       <c r="V12" s="1">
-        <v>9.365796</v>
+        <v>9.3657959999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.698000</v>
+        <v>-170.69800000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>33727.566467</v>
+        <v>33727.566466999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.368768</v>
+        <v>9.3687679999999993</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.530000</v>
+        <v>1351.53</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.240000</v>
+        <v>-169.24</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>33738.408517</v>
+        <v>33738.408517000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.371780</v>
+        <v>9.3717799999999993</v>
       </c>
       <c r="AG12" s="1">
-        <v>1365.130000</v>
+        <v>1365.13</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.110000</v>
+        <v>-179.11</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>33748.889511</v>
+        <v>33748.889511000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.374692</v>
+        <v>9.3746919999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1386.170000</v>
+        <v>1386.17</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.004000</v>
+        <v>-209.00399999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>33759.653691</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.377682</v>
+        <v>9.3776820000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.832000</v>
+        <v>-252.83199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>33770.929707</v>
+        <v>33770.929707000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.380814</v>
+        <v>9.3808140000000009</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.680000</v>
+        <v>1432.68</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>33782.625372</v>
+        <v>33782.625372000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.384063</v>
+        <v>9.3840629999999994</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.000000</v>
+        <v>-365</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>33793.279932</v>
+        <v>33793.279931999998</v>
       </c>
       <c r="BE12" s="1">
         <v>9.387022</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.000000</v>
+        <v>1537</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.665000</v>
+        <v>-613.66499999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>33804.193902</v>
+        <v>33804.193901999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.390054</v>
+        <v>9.3900539999999992</v>
       </c>
       <c r="BK12" s="1">
-        <v>1690.510000</v>
+        <v>1690.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.130000</v>
+        <v>-1060.1300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>33814.892607</v>
+        <v>33814.892607000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.393026</v>
+        <v>9.3930260000000008</v>
       </c>
       <c r="BP12" s="1">
-        <v>1983.430000</v>
+        <v>1983.43</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1834.890000</v>
+        <v>-1834.89</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>33825.452931</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.395959</v>
+        <v>9.3959589999999995</v>
       </c>
       <c r="BU12" s="1">
-        <v>2370.910000</v>
+        <v>2370.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2733.210000</v>
+        <v>-2733.21</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>33836.554915</v>
+        <v>33836.554915000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.399043</v>
+        <v>9.3990430000000007</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2851.400000</v>
+        <v>2851.4</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3709.640000</v>
+        <v>-3709.64</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>33848.512933</v>
+        <v>33848.512932999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.402365</v>
+        <v>9.4023649999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>4261.530000</v>
+        <v>4261.53</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6074.510000</v>
+        <v>-6074.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>33675.310494</v>
+        <v>33675.310493999998</v>
       </c>
       <c r="B13" s="1">
-        <v>9.354253</v>
+        <v>9.3542529999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-289.597000</v>
+        <v>-289.59699999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>33685.701644</v>
+        <v>33685.701644000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9.357139</v>
+        <v>9.3571390000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1266.860000</v>
+        <v>1266.8599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-254.587000</v>
+        <v>-254.58699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>33696.163260</v>
+        <v>33696.163260000001</v>
       </c>
       <c r="L13" s="1">
-        <v>9.360045</v>
+        <v>9.3600449999999995</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.540000</v>
+        <v>1305.54</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.638000</v>
+        <v>-199.63800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>33706.708703</v>
+        <v>33706.708702999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.362975</v>
+        <v>9.3629750000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.200000</v>
+        <v>-183.2</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>33717.556736</v>
+        <v>33717.556735999999</v>
       </c>
       <c r="V13" s="1">
-        <v>9.365988</v>
+        <v>9.3659879999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.080000</v>
+        <v>1333.08</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.688000</v>
+        <v>-170.68799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>33728.259878</v>
+        <v>33728.259877999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.368961</v>
+        <v>9.3689610000000005</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.630000</v>
+        <v>1351.63</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.380000</v>
+        <v>-169.38</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>33738.751782</v>
+        <v>33738.751781999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.371875</v>
+        <v>9.3718749999999993</v>
       </c>
       <c r="AG13" s="1">
-        <v>1365.160000</v>
+        <v>1365.16</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.096000</v>
+        <v>-179.096</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33749.240678</v>
+        <v>33749.240678000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.374789</v>
+        <v>9.3747889999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1386.170000</v>
+        <v>1386.17</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.978000</v>
+        <v>-208.97800000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>33760.013292</v>
+        <v>33760.013292000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.377781</v>
+        <v>9.3777810000000006</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.856000</v>
+        <v>-252.85599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>33771.609753</v>
+        <v>33771.609752999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.381003</v>
+        <v>9.3810029999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.670000</v>
+        <v>1432.67</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.864000</v>
+        <v>-312.86399999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>33783.063370</v>
+        <v>33783.063370000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.384184</v>
+        <v>9.3841839999999994</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.974000</v>
+        <v>-364.97399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>33793.718924</v>
+        <v>33793.718924000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.387144</v>
+        <v>9.3871439999999993</v>
       </c>
       <c r="BF13" s="1">
-        <v>1536.950000</v>
+        <v>1536.95</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.660000</v>
+        <v>-613.66</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>33804.583795</v>
+        <v>33804.583794999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.390162</v>
+        <v>9.3901620000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1690.570000</v>
+        <v>1690.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.080000</v>
+        <v>-1060.08</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>33815.288911</v>
+        <v>33815.288911000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.393136</v>
+        <v>9.3931360000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1983.500000</v>
+        <v>1983.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1834.810000</v>
+        <v>-1834.81</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>33825.882465</v>
+        <v>33825.882465000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.396078</v>
+        <v>9.3960779999999993</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.050000</v>
+        <v>2370.0500000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2732.980000</v>
+        <v>-2732.98</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>33837.013188</v>
+        <v>33837.013187999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.399170</v>
+        <v>9.3991699999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.110000</v>
+        <v>2852.11</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3710.420000</v>
+        <v>-3710.42</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>33849.028770</v>
+        <v>33849.028769999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.402508</v>
+        <v>9.4025079999999992</v>
       </c>
       <c r="CE13" s="1">
-        <v>4273.110000</v>
+        <v>4273.1099999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6088.840000</v>
+        <v>-6088.84</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>33675.648232</v>
       </c>
       <c r="B14" s="1">
-        <v>9.354347</v>
+        <v>9.3543470000000006</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="D14" s="1">
-        <v>-290.138000</v>
+        <v>-290.13799999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>33686.045867</v>
+        <v>33686.045867000001</v>
       </c>
       <c r="G14" s="1">
-        <v>9.357235</v>
+        <v>9.3572349999999993</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.770000</v>
+        <v>1267.77</v>
       </c>
       <c r="I14" s="1">
-        <v>-254.283000</v>
+        <v>-254.28299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>33696.854684</v>
+        <v>33696.854683999998</v>
       </c>
       <c r="L14" s="1">
-        <v>9.360237</v>
+        <v>9.3602369999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.470000</v>
+        <v>1305.47</v>
       </c>
       <c r="N14" s="1">
-        <v>-199.535000</v>
+        <v>-199.535</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>33707.408557</v>
+        <v>33707.408557000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.363169</v>
+        <v>9.3631689999999992</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.222000</v>
+        <v>-183.22200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>33717.900432</v>
+        <v>33717.900432000002</v>
       </c>
       <c r="V14" s="1">
-        <v>9.366083</v>
+        <v>9.3660829999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.947000</v>
+        <v>-170.947</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>33728.610721</v>
+        <v>33728.610720999997</v>
       </c>
       <c r="AA14" s="1">
         <v>9.369059</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.740000</v>
+        <v>1351.74</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.299000</v>
+        <v>-169.29900000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>33739.095973</v>
+        <v>33739.095973000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.371971</v>
+        <v>9.3719710000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>1365.180000</v>
+        <v>1365.18</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.117000</v>
+        <v>-179.11699999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33749.906279</v>
+        <v>33749.906279000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.374974</v>
+        <v>9.3749739999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1386.160000</v>
+        <v>1386.16</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>33760.665496</v>
+        <v>33760.665496000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.377963</v>
+        <v>9.3779629999999994</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.851000</v>
+        <v>-252.851</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>33772.048712</v>
+        <v>33772.048712000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.381125</v>
+        <v>9.3811250000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.873000</v>
+        <v>-312.87299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>33783.419993</v>
+        <v>33783.419993000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.384283</v>
+        <v>9.3842829999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.004000</v>
+        <v>-365.00400000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>33794.078491</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.387244</v>
+        <v>9.3872440000000008</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.030000</v>
+        <v>1537.03</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.649000</v>
+        <v>-613.649</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>33804.960749</v>
+        <v>33804.960748999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.390267</v>
+        <v>9.3902669999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1690.530000</v>
+        <v>1690.53</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1060.040000</v>
+        <v>-1060.04</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>33815.711535</v>
+        <v>33815.711535000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.393253</v>
+        <v>9.3932529999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1983.590000</v>
+        <v>1983.59</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1834.760000</v>
+        <v>-1834.76</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>33826.314482</v>
+        <v>33826.314482000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.396198</v>
+        <v>9.3961980000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.870000</v>
+        <v>2369.87</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2733.290000</v>
+        <v>-2733.29</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>33837.459121</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.399294</v>
+        <v>9.3992939999999994</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.570000</v>
+        <v>2852.57</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3710.080000</v>
+        <v>-3710.08</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>33849.549083</v>
+        <v>33849.549082999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.402653</v>
+        <v>9.4026530000000008</v>
       </c>
       <c r="CE14" s="1">
-        <v>4285.110000</v>
+        <v>4285.1099999999997</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6074.860000</v>
+        <v>-6074.86</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>33675.991959</v>
+        <v>33675.991958999999</v>
       </c>
       <c r="B15" s="1">
-        <v>9.354442</v>
+        <v>9.3544420000000006</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.130000</v>
+        <v>1242.1300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-289.946000</v>
+        <v>-289.94600000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>33686.735344</v>
+        <v>33686.735344000001</v>
       </c>
       <c r="G15" s="1">
-        <v>9.357426</v>
+        <v>9.3574260000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.670000</v>
+        <v>1267.67</v>
       </c>
       <c r="I15" s="1">
-        <v>-254.544000</v>
+        <v>-254.54400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>33697.201424</v>
+        <v>33697.201423999999</v>
       </c>
       <c r="L15" s="1">
-        <v>9.360334</v>
+        <v>9.3603339999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.478000</v>
+        <v>-199.47800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>33707.754271</v>
+        <v>33707.754270999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.363265</v>
+        <v>9.3632650000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.268000</v>
+        <v>-183.268</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>33718.242207</v>
+        <v>33718.242207000003</v>
       </c>
       <c r="V15" s="1">
-        <v>9.366178</v>
+        <v>9.3661779999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.830000</v>
+        <v>-170.83</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>33729.270721</v>
+        <v>33729.270721000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.369242</v>
+        <v>9.3692419999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.760000</v>
+        <v>1351.76</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.255000</v>
+        <v>-169.255</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>33739.757139</v>
+        <v>33739.757139000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.372155</v>
+        <v>9.3721549999999993</v>
       </c>
       <c r="AG15" s="1">
-        <v>1365.180000</v>
+        <v>1365.18</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.093000</v>
+        <v>-179.09299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>33750.286711</v>
+        <v>33750.286711000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.375080</v>
+        <v>9.3750800000000005</v>
       </c>
       <c r="AL15" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.004000</v>
+        <v>-209.00399999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>33761.123340</v>
+        <v>33761.123339999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.378090</v>
+        <v>9.3780900000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.970000</v>
+        <v>1407.97</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.862000</v>
+        <v>-252.86199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>33772.411752</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.381225</v>
+        <v>9.3812250000000006</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>33783.779095</v>
+        <v>33783.779094999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.384383</v>
+        <v>9.3843829999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.969000</v>
+        <v>-364.96899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>33794.442059</v>
+        <v>33794.442059000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.387345</v>
+        <v>9.3873449999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.000000</v>
+        <v>1537</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.696000</v>
+        <v>-613.69600000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>33805.387276</v>
+        <v>33805.387276000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.390385</v>
+        <v>9.3903850000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1690.580000</v>
+        <v>1690.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1060.070000</v>
+        <v>-1060.07</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>33816.106355</v>
+        <v>33816.106355000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.393363</v>
+        <v>9.3933630000000008</v>
       </c>
       <c r="BP15" s="1">
-        <v>1983.540000</v>
+        <v>1983.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1834.590000</v>
+        <v>-1834.59</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>33826.711776</v>
+        <v>33826.711775999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.396309</v>
+        <v>9.3963090000000005</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.260000</v>
+        <v>2369.2600000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2733.010000</v>
+        <v>-2733.01</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>33837.882703</v>
+        <v>33837.882703000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.399412</v>
+        <v>9.3994119999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.090000</v>
+        <v>2852.09</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3710.130000</v>
+        <v>-3710.13</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>33850.066504</v>
+        <v>33850.066504000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.402796</v>
+        <v>9.4027960000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>4280.370000</v>
+        <v>4280.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6081.800000</v>
+        <v>-6081.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>33676.675974</v>
+        <v>33676.675973999998</v>
       </c>
       <c r="B16" s="1">
-        <v>9.354632</v>
+        <v>9.3546320000000005</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.280000</v>
+        <v>1242.28</v>
       </c>
       <c r="D16" s="1">
-        <v>-289.879000</v>
+        <v>-289.87900000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>33687.078568</v>
+        <v>33687.078567999997</v>
       </c>
       <c r="G16" s="1">
-        <v>9.357522</v>
+        <v>9.3575219999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="I16" s="1">
-        <v>-254.375000</v>
+        <v>-254.375</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>33697.552555</v>
+        <v>33697.552555000002</v>
       </c>
       <c r="L16" s="1">
-        <v>9.360431</v>
+        <v>9.3604310000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.340000</v>
+        <v>1305.3399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-199.603000</v>
+        <v>-199.60300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>33708.101965</v>
+        <v>33708.101965000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.363362</v>
+        <v>9.3633620000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.231000</v>
+        <v>-183.23099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>33718.891969</v>
+        <v>33718.891968999997</v>
       </c>
       <c r="V16" s="1">
-        <v>9.366359</v>
+        <v>9.3663589999999992</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.150000</v>
+        <v>1333.15</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.019000</v>
+        <v>-171.01900000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>33729.654624</v>
+        <v>33729.654624000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.369349</v>
+        <v>9.3693489999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.434000</v>
+        <v>-169.434</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>33740.127196</v>
+        <v>33740.127196000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.372258</v>
+        <v>9.3722580000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1365.100000</v>
+        <v>1365.1</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.119000</v>
+        <v>-179.119</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>33750.632952</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.375176</v>
+        <v>9.3751759999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>1386.170000</v>
+        <v>1386.17</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.032000</v>
+        <v>-209.03200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>33761.483399</v>
+        <v>33761.483398999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.378190</v>
+        <v>9.37819</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.855000</v>
+        <v>-252.85499999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>33772.773411</v>
+        <v>33772.773411000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.381326</v>
+        <v>9.3813259999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.858000</v>
+        <v>-312.858</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>33784.196200</v>
+        <v>33784.196199999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.384499</v>
+        <v>9.3844989999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.970000</v>
+        <v>-364.97</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>33794.871596</v>
+        <v>33794.871595999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.387464</v>
+        <v>9.3874639999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1536.970000</v>
+        <v>1536.97</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.614000</v>
+        <v>-613.61400000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>33805.709181</v>
+        <v>33805.709180999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.390475</v>
+        <v>9.3904750000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1690.560000</v>
+        <v>1690.56</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.090000</v>
+        <v>-1060.0899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>33816.529901</v>
+        <v>33816.529901000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.393481</v>
+        <v>9.3934809999999995</v>
       </c>
       <c r="BP16" s="1">
-        <v>1983.370000</v>
+        <v>1983.37</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1834.760000</v>
+        <v>-1834.76</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>33827.126463</v>
+        <v>33827.126463000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.396424</v>
+        <v>9.3964239999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.010000</v>
+        <v>2369.0100000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2733.420000</v>
+        <v>-2733.42</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>33838.301830</v>
+        <v>33838.301829999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.399528</v>
+        <v>9.3995280000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2851.680000</v>
+        <v>2851.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3709.860000</v>
+        <v>-3709.86</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>33850.618448</v>
+        <v>33850.618448000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.402950</v>
+        <v>9.4029500000000006</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.700000</v>
+        <v>4272.7</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6089.060000</v>
+        <v>-6089.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>33677.021158</v>
+        <v>33677.021158000003</v>
       </c>
       <c r="B17" s="1">
-        <v>9.354728</v>
+        <v>9.3547279999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.230000</v>
+        <v>1242.23</v>
       </c>
       <c r="D17" s="1">
-        <v>-289.593000</v>
+        <v>-289.59300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>33687.425241</v>
+        <v>33687.425240999997</v>
       </c>
       <c r="G17" s="1">
-        <v>9.357618</v>
+        <v>9.3576180000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.370000</v>
+        <v>1267.3699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-254.007000</v>
+        <v>-254.00700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>33698.205320</v>
+        <v>33698.205320000001</v>
       </c>
       <c r="L17" s="1">
-        <v>9.360613</v>
+        <v>9.3606130000000007</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.160000</v>
+        <v>1305.1600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-199.451000</v>
+        <v>-199.45099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>33708.762405</v>
+        <v>33708.762405000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.363545</v>
+        <v>9.3635450000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.370000</v>
+        <v>1318.37</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.220000</v>
+        <v>-183.22</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>33719.272398</v>
+        <v>33719.272398000001</v>
       </c>
       <c r="V17" s="1">
-        <v>9.366465</v>
+        <v>9.3664649999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.905000</v>
+        <v>-170.905</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>33729.993394</v>
+        <v>33729.993393999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.369443</v>
+        <v>9.3694430000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.327000</v>
+        <v>-169.327</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>33740.469918</v>
+        <v>33740.469918000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.372353</v>
+        <v>9.3723530000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.100000</v>
+        <v>1365.1</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.042000</v>
+        <v>-179.042</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>33750.981108</v>
@@ -4441,2463 +4857,2464 @@
         <v>9.375273</v>
       </c>
       <c r="AL17" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.967000</v>
+        <v>-208.96700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>33761.845478</v>
+        <v>33761.845478000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.378290</v>
+        <v>9.3782899999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.885000</v>
+        <v>-252.88499999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>33773.185015</v>
+        <v>33773.185015000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.381440</v>
+        <v>9.3814399999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.846000</v>
+        <v>-312.846</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>33784.493305</v>
+        <v>33784.493305000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.384581</v>
+        <v>9.3845810000000007</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.991000</v>
+        <v>-364.99099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>33795.150842</v>
+        <v>33795.150842000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.387542</v>
+        <v>9.3875419999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1536.980000</v>
+        <v>1536.98</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.636000</v>
+        <v>-613.63599999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>33806.084692</v>
+        <v>33806.084691999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.390579</v>
+        <v>9.3905790000000007</v>
       </c>
       <c r="BK17" s="1">
-        <v>1690.540000</v>
+        <v>1690.54</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.070000</v>
+        <v>-1060.07</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>33816.926207</v>
+        <v>33816.926206999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.393591</v>
+        <v>9.3935910000000007</v>
       </c>
       <c r="BP17" s="1">
-        <v>1983.490000</v>
+        <v>1983.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1834.710000</v>
+        <v>-1834.71</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>33827.538112</v>
+        <v>33827.538112000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.396538</v>
+        <v>9.3965379999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.740000</v>
+        <v>2368.7399999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2732.660000</v>
+        <v>-2732.66</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>33838.727857</v>
+        <v>33838.727856999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.399647</v>
+        <v>9.3996469999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.760000</v>
+        <v>2851.76</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3710.660000</v>
+        <v>-3710.66</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>33851.147218</v>
+        <v>33851.147217999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.403096</v>
+        <v>9.4030959999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>4283.900000</v>
+        <v>4283.8999999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6076.330000</v>
+        <v>-6076.33</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>33677.361414</v>
+        <v>33677.361413999999</v>
       </c>
       <c r="B18" s="1">
-        <v>9.354823</v>
+        <v>9.3548229999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1241.860000</v>
+        <v>1241.8599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-289.956000</v>
+        <v>-289.95600000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>33688.070567</v>
+        <v>33688.070567000002</v>
       </c>
       <c r="G18" s="1">
-        <v>9.357797</v>
+        <v>9.3577969999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.100000</v>
+        <v>1267.0999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-254.584000</v>
+        <v>-254.584</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>33698.585753</v>
+        <v>33698.585752999999</v>
       </c>
       <c r="L18" s="1">
-        <v>9.360718</v>
+        <v>9.3607180000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-199.430000</v>
+        <v>-199.43</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>33709.148555</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.363652</v>
+        <v>9.3636520000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.198000</v>
+        <v>-183.19800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>33719.616132</v>
+        <v>33719.616132000003</v>
       </c>
       <c r="V18" s="1">
-        <v>9.366560</v>
+        <v>9.3665599999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.070000</v>
+        <v>1333.07</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.943000</v>
+        <v>-170.94300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>33730.351504</v>
+        <v>33730.351503999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.369542</v>
+        <v>9.3695419999999991</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.406000</v>
+        <v>-169.40600000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>33740.818610</v>
+        <v>33740.818610000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.372450</v>
+        <v>9.3724500000000006</v>
       </c>
       <c r="AG18" s="1">
-        <v>1365.100000</v>
+        <v>1365.1</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.086000</v>
+        <v>-179.08600000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>33751.398772</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.375389</v>
+        <v>9.3753890000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.001000</v>
+        <v>-209.001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>33762.298823</v>
+        <v>33762.298822999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.378416</v>
+        <v>9.3784159999999996</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.828000</v>
+        <v>-252.828</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>33773.505928</v>
+        <v>33773.505927999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.381529</v>
+        <v>9.3815290000000005</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>33784.855879</v>
+        <v>33784.855879000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.384682</v>
+        <v>9.3846819999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.980000</v>
+        <v>-364.98</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>33795.523870</v>
+        <v>33795.523869999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.387646</v>
+        <v>9.3876460000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1536.980000</v>
+        <v>1536.98</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.640000</v>
+        <v>-613.64</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>33806.484428</v>
+        <v>33806.484428000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.390690</v>
+        <v>9.3906899999999993</v>
       </c>
       <c r="BK18" s="1">
-        <v>1690.570000</v>
+        <v>1690.57</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.080000</v>
+        <v>-1060.08</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>33817.344830</v>
+        <v>33817.344830000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.393707</v>
+        <v>9.3937069999999991</v>
       </c>
       <c r="BP18" s="1">
-        <v>1983.370000</v>
+        <v>1983.37</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1834.800000</v>
+        <v>-1834.8</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>33827.956736</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.396655</v>
+        <v>9.3966550000000009</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.210000</v>
+        <v>2368.21</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2732.750000</v>
+        <v>-2732.75</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>33839.144000</v>
+        <v>33839.144</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.399762</v>
+        <v>9.3997620000000008</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.980000</v>
+        <v>2851.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3709.360000</v>
+        <v>-3709.36</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>33851.665040</v>
+        <v>33851.66504</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.403240</v>
+        <v>9.4032400000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>4271.980000</v>
+        <v>4271.9799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6066.130000</v>
+        <v>-6066.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>33678.054357</v>
+        <v>33678.054357000001</v>
       </c>
       <c r="B19" s="1">
-        <v>9.355015</v>
+        <v>9.3550149999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-289.873000</v>
+        <v>-289.87299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>33688.459895</v>
       </c>
       <c r="G19" s="1">
-        <v>9.357906</v>
+        <v>9.3579059999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.630000</v>
+        <v>1267.6300000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-253.705000</v>
+        <v>-253.70500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>33698.930079</v>
+        <v>33698.930078999998</v>
       </c>
       <c r="L19" s="1">
-        <v>9.360814</v>
+        <v>9.3608139999999995</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N19" s="1">
-        <v>-199.562000</v>
+        <v>-199.56200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>33709.496715</v>
+        <v>33709.496715000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.363749</v>
+        <v>9.3637490000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.279000</v>
+        <v>-183.279</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>33719.958830</v>
+        <v>33719.958830000003</v>
       </c>
       <c r="V19" s="1">
-        <v>9.366655</v>
+        <v>9.3666549999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.904000</v>
+        <v>-170.904</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>33730.770158</v>
+        <v>33730.770157999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.369658</v>
+        <v>9.3696579999999994</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.468000</v>
+        <v>-169.46799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>33741.230258</v>
+        <v>33741.230258000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.372564</v>
+        <v>9.3725640000000006</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.140000</v>
+        <v>1365.14</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.088000</v>
+        <v>-179.08799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>33751.691388</v>
+        <v>33751.691387999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.375470</v>
+        <v>9.37547</v>
       </c>
       <c r="AL19" s="1">
-        <v>1386.180000</v>
+        <v>1386.18</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.957000</v>
+        <v>-208.95699999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>33762.564218</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.378490</v>
+        <v>9.3784899999999993</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.872000</v>
+        <v>-252.87200000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>33773.873464</v>
+        <v>33773.873463999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.381632</v>
+        <v>9.3816319999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.841000</v>
+        <v>-312.84100000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>33785.212045</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.384781</v>
+        <v>9.3847810000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.990000</v>
+        <v>-364.99</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>33796.210296</v>
+        <v>33796.210295999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.387836</v>
+        <v>9.3878360000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.000000</v>
+        <v>1537</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.657000</v>
+        <v>-613.65700000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>33807.234875</v>
+        <v>33807.234875000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.390899</v>
+        <v>9.3908989999999992</v>
       </c>
       <c r="BK19" s="1">
-        <v>1690.540000</v>
+        <v>1690.54</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1060.040000</v>
+        <v>-1060.04</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>33817.743613</v>
+        <v>33817.743612999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.393818</v>
+        <v>9.3938179999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1983.330000</v>
+        <v>1983.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1834.770000</v>
+        <v>-1834.77</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>33828.373374</v>
+        <v>33828.373374000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.396770</v>
+        <v>9.3967700000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.160000</v>
+        <v>2368.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2732.340000</v>
+        <v>-2732.34</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>33839.601807</v>
+        <v>33839.601806999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.399889</v>
+        <v>9.3998889999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2851.370000</v>
+        <v>2851.37</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3709.850000</v>
+        <v>-3709.85</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>33852.502255</v>
+        <v>33852.502254999999</v>
       </c>
       <c r="CD19" s="1">
         <v>9.403473</v>
       </c>
       <c r="CE19" s="1">
-        <v>4264.120000</v>
+        <v>4264.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6078.500000</v>
+        <v>-6078.5</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>33678.392628</v>
+        <v>33678.392628000001</v>
       </c>
       <c r="B20" s="1">
-        <v>9.355109</v>
+        <v>9.3551090000000006</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.240000</v>
+        <v>1242.24</v>
       </c>
       <c r="D20" s="1">
-        <v>-289.510000</v>
+        <v>-289.51</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>33688.804614</v>
+        <v>33688.804614000001</v>
       </c>
       <c r="G20" s="1">
-        <v>9.358001</v>
+        <v>9.3580009999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.400000</v>
+        <v>1267.4000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-253.882000</v>
+        <v>-253.88200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>33699.278168</v>
+        <v>33699.278167999997</v>
       </c>
       <c r="L20" s="1">
-        <v>9.360911</v>
+        <v>9.3609109999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.393000</v>
+        <v>-199.393</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>33709.847387</v>
+        <v>33709.847387000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.363846</v>
+        <v>9.3638460000000006</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.344000</v>
+        <v>-183.34399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>33720.388364</v>
+        <v>33720.388363999999</v>
       </c>
       <c r="V20" s="1">
-        <v>9.366775</v>
+        <v>9.3667750000000005</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.936000</v>
+        <v>-170.93600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>33731.050366</v>
+        <v>33731.050366000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.369736</v>
+        <v>9.3697359999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.510000</v>
+        <v>1351.51</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.311000</v>
+        <v>-169.31100000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>33741.521906</v>
+        <v>33741.521906000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.372645</v>
+        <v>9.3726450000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1365.130000</v>
+        <v>1365.13</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.059000</v>
+        <v>-179.059</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33752.038580</v>
+        <v>33752.03858</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.375566</v>
+        <v>9.3755659999999992</v>
       </c>
       <c r="AL20" s="1">
-        <v>1386.160000</v>
+        <v>1386.16</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.962000</v>
+        <v>-208.96199999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>33762.924774</v>
+        <v>33762.924773999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.378590</v>
+        <v>9.3785900000000009</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.846000</v>
+        <v>-252.846</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>33774.237031</v>
+        <v>33774.237030999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.381733</v>
+        <v>9.3817330000000005</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.838000</v>
+        <v>-312.83800000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>33785.931207</v>
+        <v>33785.931207000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.384981</v>
+        <v>9.3849809999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.965000</v>
+        <v>-364.96499999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>33796.607625</v>
+        <v>33796.607624999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.387947</v>
+        <v>9.3879470000000005</v>
       </c>
       <c r="BF20" s="1">
-        <v>1536.970000</v>
+        <v>1536.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.609000</v>
+        <v>-613.60900000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>33807.636139</v>
+        <v>33807.636139000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.391010</v>
+        <v>9.3910099999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1690.510000</v>
+        <v>1690.51</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1060.000000</v>
+        <v>-1060</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>33818.163725</v>
+        <v>33818.163724999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.393934</v>
+        <v>9.3939339999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1983.280000</v>
+        <v>1983.28</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1834.790000</v>
+        <v>-1834.79</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>33828.789059</v>
+        <v>33828.789059000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.396886</v>
+        <v>9.3968860000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.820000</v>
+        <v>2367.8200000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2732.400000</v>
+        <v>-2732.4</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>33840.360224</v>
+        <v>33840.360223999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.400100</v>
+        <v>9.4001000000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.030000</v>
+        <v>2852.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3709.960000</v>
+        <v>-3709.96</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>33852.736863</v>
+        <v>33852.736862999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.403538</v>
+        <v>9.4035379999999993</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.770000</v>
+        <v>4278.7700000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6080.400000</v>
+        <v>-6080.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>33678.732889</v>
+        <v>33678.732888999999</v>
       </c>
       <c r="B21" s="1">
-        <v>9.355204</v>
+        <v>9.3552040000000005</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.060000</v>
+        <v>1242.06</v>
       </c>
       <c r="D21" s="1">
-        <v>-289.569000</v>
+        <v>-289.56900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>33689.147645</v>
+        <v>33689.147644999997</v>
       </c>
       <c r="G21" s="1">
-        <v>9.358097</v>
+        <v>9.3580970000000008</v>
       </c>
       <c r="H21" s="1">
-        <v>1267.140000</v>
+        <v>1267.1400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-253.779000</v>
+        <v>-253.779</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>33699.703239</v>
+        <v>33699.703239000002</v>
       </c>
       <c r="L21" s="1">
-        <v>9.361029</v>
+        <v>9.3610290000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.150000</v>
+        <v>1305.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-199.740000</v>
+        <v>-199.74</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>33710.260554</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.363961</v>
+        <v>9.3639609999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.272000</v>
+        <v>-183.27199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>33720.672572</v>
+        <v>33720.672572000003</v>
       </c>
       <c r="V21" s="1">
-        <v>9.366853</v>
+        <v>9.3668530000000008</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.847000</v>
+        <v>-170.84700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>33731.401534</v>
+        <v>33731.401533999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.369834</v>
+        <v>9.3698340000000009</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.660000</v>
+        <v>1351.66</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.412000</v>
+        <v>-169.41200000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>33741.866624</v>
+        <v>33741.866624000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.372741</v>
+        <v>9.3727409999999995</v>
       </c>
       <c r="AG21" s="1">
-        <v>1365.160000</v>
+        <v>1365.16</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.101000</v>
+        <v>-179.101</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>33752.387764</v>
+        <v>33752.387763999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.375663</v>
+        <v>9.3756629999999994</v>
       </c>
       <c r="AL21" s="1">
-        <v>1386.140000</v>
+        <v>1386.14</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.991000</v>
+        <v>-208.99100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>33763.644467</v>
+        <v>33763.644466999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.378790</v>
+        <v>9.3787900000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.871000</v>
+        <v>-252.87100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>33774.965654</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.381935</v>
+        <v>9.3819350000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.841000</v>
+        <v>-312.84100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>33786.289354</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.385080</v>
+        <v>9.3850800000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>33796.968220</v>
+        <v>33796.968220000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.388047</v>
+        <v>9.3880470000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1536.930000</v>
+        <v>1536.93</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.636000</v>
+        <v>-613.63599999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>33808.011610</v>
+        <v>33808.011610000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>9.391114</v>
       </c>
       <c r="BK21" s="1">
-        <v>1690.510000</v>
+        <v>1690.51</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1060.000000</v>
+        <v>-1060</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>33818.866590</v>
+        <v>33818.866589999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.394130</v>
+        <v>9.3941300000000005</v>
       </c>
       <c r="BP21" s="1">
-        <v>1983.380000</v>
+        <v>1983.38</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1834.670000</v>
+        <v>-1834.67</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>33829.716081</v>
+        <v>33829.716080999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.397143</v>
+        <v>9.3971429999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.270000</v>
+        <v>2367.27</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2731.790000</v>
+        <v>-2731.79</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>33840.479727</v>
+        <v>33840.479726999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.400133</v>
+        <v>9.4001330000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2851.700000</v>
+        <v>2851.7</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3709.470000</v>
+        <v>-3709.47</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>33853.268077</v>
+        <v>33853.268077000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.403686</v>
+        <v>9.4036860000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>4270.170000</v>
+        <v>4270.17</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6064.340000</v>
+        <v>-6064.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>33679.146516</v>
+        <v>33679.146516000001</v>
       </c>
       <c r="B22" s="1">
-        <v>9.355318</v>
+        <v>9.3553180000000005</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.070000</v>
+        <v>1242.07</v>
       </c>
       <c r="D22" s="1">
-        <v>-289.765000</v>
+        <v>-289.76499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>33689.566966</v>
+        <v>33689.566965999999</v>
       </c>
       <c r="G22" s="1">
-        <v>9.358213</v>
+        <v>9.3582129999999992</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.200000</v>
+        <v>1267.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-254.504000</v>
+        <v>-254.50399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>33699.991881</v>
+        <v>33699.991881000002</v>
       </c>
       <c r="L22" s="1">
-        <v>9.361109</v>
+        <v>9.3611090000000008</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.410000</v>
+        <v>1305.4100000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-199.923000</v>
+        <v>-199.923</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>33710.553690</v>
+        <v>33710.553690000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.364043</v>
+        <v>9.3640430000000006</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.303000</v>
+        <v>-183.303</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>33721.016316</v>
+        <v>33721.016316000001</v>
       </c>
       <c r="V22" s="1">
         <v>9.366949</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.805000</v>
+        <v>-170.80500000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>33731.750223</v>
+        <v>33731.750223000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.369931</v>
+        <v>9.3699309999999993</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.306000</v>
+        <v>-169.30600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>33742.207907</v>
+        <v>33742.207907000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.372836</v>
+        <v>9.3728359999999995</v>
       </c>
       <c r="AG22" s="1">
-        <v>1365.140000</v>
+        <v>1365.14</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.123000</v>
+        <v>-179.12299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>33753.084146</v>
+        <v>33753.084146000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.375857</v>
+        <v>9.3758569999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1386.150000</v>
+        <v>1386.15</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.982000</v>
+        <v>-208.982</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>33764.032866</v>
+        <v>33764.032866000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.378898</v>
+        <v>9.3788979999999995</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.854000</v>
+        <v>-252.85400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>33775.330245</v>
+        <v>33775.330244999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.382036</v>
+        <v>9.3820359999999994</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.844000</v>
+        <v>-312.84399999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>33786.648421</v>
+        <v>33786.648420999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.385180</v>
+        <v>9.3851800000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.974000</v>
+        <v>-364.97399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>33797.641750</v>
+        <v>33797.641750000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.388234</v>
+        <v>9.3882340000000006</v>
       </c>
       <c r="BF22" s="1">
-        <v>1536.990000</v>
+        <v>1536.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.623000</v>
+        <v>-613.62300000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>33808.688648</v>
+        <v>33808.688648000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.391302</v>
+        <v>9.3913019999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1690.550000</v>
+        <v>1690.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1059.980000</v>
+        <v>-1059.98</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>33818.978154</v>
+        <v>33818.978153999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.394161</v>
+        <v>9.3941610000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1983.450000</v>
+        <v>1983.45</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1834.610000</v>
+        <v>-1834.61</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>33830.042411</v>
+        <v>33830.042411000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.397234</v>
+        <v>9.3972339999999992</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.120000</v>
+        <v>2367.12</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2731.730000</v>
+        <v>-2731.73</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>33840.907279</v>
+        <v>33840.907278999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.400252</v>
+        <v>9.4002520000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2851.390000</v>
+        <v>2851.39</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3709.870000</v>
+        <v>-3709.87</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>33853.808252</v>
+        <v>33853.808252000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.403836</v>
+        <v>9.4038360000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4269.870000</v>
+        <v>4269.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6087.120000</v>
+        <v>-6087.12</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>33679.430228</v>
+        <v>33679.430227999997</v>
       </c>
       <c r="B23" s="1">
         <v>9.355397</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-289.152000</v>
+        <v>-289.15199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>33689.846710</v>
+        <v>33689.846709999998</v>
       </c>
       <c r="G23" s="1">
-        <v>9.358291</v>
+        <v>9.3582909999999995</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.830000</v>
+        <v>1267.83</v>
       </c>
       <c r="I23" s="1">
-        <v>-253.720000</v>
+        <v>-253.72</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>33700.334151</v>
+        <v>33700.334151000003</v>
       </c>
       <c r="L23" s="1">
-        <v>9.361204</v>
+        <v>9.3612040000000007</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.200000</v>
+        <v>1305.2</v>
       </c>
       <c r="N23" s="1">
-        <v>-199.503000</v>
+        <v>-199.50299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>33710.899401</v>
+        <v>33710.899401000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.364139</v>
+        <v>9.3641389999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.241000</v>
+        <v>-183.24100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>33721.358576</v>
+        <v>33721.358575999999</v>
       </c>
       <c r="V23" s="1">
-        <v>9.367044</v>
+        <v>9.3670439999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.140000</v>
+        <v>1333.14</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.813000</v>
+        <v>-170.81299999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>33732.445650</v>
+        <v>33732.445650000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.370124</v>
+        <v>9.3701240000000006</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.660000</v>
+        <v>1351.66</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.312000</v>
+        <v>-169.31200000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>33742.898303</v>
+        <v>33742.898303000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.373027</v>
+        <v>9.3730270000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>1365.110000</v>
+        <v>1365.11</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.100000</v>
+        <v>-179.1</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>33753.431382</v>
+        <v>33753.431382000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.375953</v>
+        <v>9.3759530000000009</v>
       </c>
       <c r="AL23" s="1">
-        <v>1386.180000</v>
+        <v>1386.18</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.005000</v>
+        <v>-209.005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>33764.394948</v>
+        <v>33764.394948000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.378999</v>
+        <v>9.3789990000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1408.030000</v>
+        <v>1408.03</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.865000</v>
+        <v>-252.86500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>33775.694808</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.382137</v>
+        <v>9.3821370000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.670000</v>
+        <v>1432.67</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>33787.323972</v>
+        <v>33787.323971999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.385368</v>
+        <v>9.3853679999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.929000</v>
+        <v>-364.92899999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>33798.078230</v>
+        <v>33798.078229999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.388355</v>
+        <v>9.3883550000000007</v>
       </c>
       <c r="BF23" s="1">
-        <v>1536.930000</v>
+        <v>1536.93</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.649000</v>
+        <v>-613.649</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>33808.799752</v>
+        <v>33808.799751999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.391333</v>
+        <v>9.3913329999999995</v>
       </c>
       <c r="BK23" s="1">
-        <v>1690.580000</v>
+        <v>1690.58</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.940000</v>
+        <v>-1059.94</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>33819.407195</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.394280</v>
+        <v>9.3942800000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1983.300000</v>
+        <v>1983.3</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1834.640000</v>
+        <v>-1834.64</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>33830.469022</v>
+        <v>33830.469021999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.397353</v>
+        <v>9.3973530000000007</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.160000</v>
+        <v>2367.16</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2731.150000</v>
+        <v>-2731.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>33841.325436</v>
+        <v>33841.325435999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.400368</v>
+        <v>9.4003680000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2851.480000</v>
+        <v>2851.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3709.340000</v>
+        <v>-3709.34</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>33854.350379</v>
+        <v>33854.350379000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.403986</v>
+        <v>9.4039859999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>4280.870000</v>
+        <v>4280.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6066.450000</v>
+        <v>-6066.45</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>33679.775478</v>
+        <v>33679.775478000003</v>
       </c>
       <c r="B24" s="1">
-        <v>9.355493</v>
+        <v>9.3554929999999992</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.320000</v>
+        <v>1242.32</v>
       </c>
       <c r="D24" s="1">
-        <v>-289.486000</v>
+        <v>-289.48599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>33690.194901</v>
+        <v>33690.194901000003</v>
       </c>
       <c r="G24" s="1">
-        <v>9.358387</v>
+        <v>9.3583870000000005</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="I24" s="1">
-        <v>-253.443000</v>
+        <v>-253.44300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>33700.678870</v>
+        <v>33700.678870000003</v>
       </c>
       <c r="L24" s="1">
-        <v>9.361300</v>
+        <v>9.3613</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-199.566000</v>
+        <v>-199.566</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>33711.748097</v>
+        <v>33711.748097000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.364374</v>
+        <v>9.3643739999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.161000</v>
+        <v>-183.161</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>33722.043514</v>
+        <v>33722.043513999997</v>
       </c>
       <c r="V24" s="1">
-        <v>9.367234</v>
+        <v>9.3672339999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.818000</v>
+        <v>-170.81800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>33732.793806</v>
+        <v>33732.793806000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.370221</v>
+        <v>9.3702210000000008</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.217000</v>
+        <v>-169.21700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>33743.237599</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.373122</v>
+        <v>9.3731220000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.120000</v>
+        <v>1365.12</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.163000</v>
+        <v>-179.16300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>33753.783504</v>
+        <v>33753.783503999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.376051</v>
+        <v>9.3760510000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.029000</v>
+        <v>-209.029</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>33765.062035</v>
+        <v>33765.062035000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.379184</v>
+        <v>9.3791840000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.860000</v>
+        <v>-252.86</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>33776.368339</v>
+        <v>33776.368339000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.382325</v>
+        <v>9.3823249999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.610000</v>
+        <v>1432.61</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>33787.758469</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.385488</v>
+        <v>9.3854880000000005</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.902000</v>
+        <v>-364.90199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>33798.440805</v>
+        <v>33798.440804999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.388456</v>
+        <v>9.3884559999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.000000</v>
+        <v>1537</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.629000</v>
+        <v>-613.62900000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>33809.162328</v>
+        <v>33809.162327999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.391434</v>
+        <v>9.3914340000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1690.540000</v>
+        <v>1690.54</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1060.020000</v>
+        <v>-1060.02</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>33819.800522</v>
+        <v>33819.800521999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.394389</v>
+        <v>9.3943890000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1983.360000</v>
+        <v>1983.36</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1834.560000</v>
+        <v>-1834.56</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>33830.892090</v>
+        <v>33830.892090000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.397470</v>
+        <v>9.3974700000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.790000</v>
+        <v>2366.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2731.220000</v>
+        <v>-2731.22</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>33841.772301</v>
+        <v>33841.772300999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.400492</v>
+        <v>9.4004919999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.130000</v>
+        <v>2852.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3710.010000</v>
+        <v>-3710.01</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>33854.889499</v>
+        <v>33854.889498999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.404136</v>
+        <v>9.4041359999999994</v>
       </c>
       <c r="CE24" s="1">
-        <v>4260.350000</v>
+        <v>4260.3500000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6079.050000</v>
+        <v>-6079.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>33680.116724</v>
       </c>
       <c r="B25" s="1">
-        <v>9.355588</v>
+        <v>9.3555879999999991</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-289.327000</v>
+        <v>-289.327</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>33690.533668</v>
+        <v>33690.533667999996</v>
       </c>
       <c r="G25" s="1">
-        <v>9.358482</v>
+        <v>9.3584820000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="I25" s="1">
-        <v>-253.354000</v>
+        <v>-253.35400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>33701.376214</v>
+        <v>33701.376214000004</v>
       </c>
       <c r="L25" s="1">
-        <v>9.361493</v>
+        <v>9.3614929999999994</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.647000</v>
+        <v>-199.64699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>33711.948936</v>
+        <v>33711.948936000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.364430</v>
+        <v>9.3644300000000005</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.145000</v>
+        <v>-183.14500000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>33722.388234</v>
+        <v>33722.388233999998</v>
       </c>
       <c r="V25" s="1">
-        <v>9.367330</v>
+        <v>9.3673300000000008</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.838000</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>33733.142999</v>
+        <v>33733.142999000003</v>
       </c>
       <c r="AA25" s="1">
         <v>9.370317</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.387000</v>
+        <v>-169.387</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>33743.582818</v>
+        <v>33743.582818000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.373217</v>
+        <v>9.3732170000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.130000</v>
+        <v>1365.13</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.113000</v>
+        <v>-179.113</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>33754.440742</v>
+        <v>33754.440741999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.376234</v>
+        <v>9.3762340000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1386.160000</v>
+        <v>1386.16</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.985000</v>
+        <v>-208.98500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>33765.500994</v>
+        <v>33765.500994000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.379306</v>
+        <v>9.3793059999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.830000</v>
+        <v>-252.83</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>33776.823679</v>
+        <v>33776.823679000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.382451</v>
+        <v>9.3824509999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.840000</v>
+        <v>-312.83999999999997</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>33788.116581</v>
+        <v>33788.116581000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.385588</v>
+        <v>9.3855880000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.930000</v>
+        <v>1451.93</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.945000</v>
+        <v>-364.94499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>33798.801433</v>
+        <v>33798.801433000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.388556</v>
+        <v>9.3885559999999995</v>
       </c>
       <c r="BF25" s="1">
-        <v>1536.960000</v>
+        <v>1536.96</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.645000</v>
+        <v>-613.64499999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>33809.538294</v>
+        <v>33809.538293999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.391538</v>
+        <v>9.3915380000000006</v>
       </c>
       <c r="BK25" s="1">
-        <v>1690.520000</v>
+        <v>1690.52</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1059.990000</v>
+        <v>-1059.99</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>33820.222157</v>
+        <v>33820.222156999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.394506</v>
+        <v>9.3945059999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1983.280000</v>
+        <v>1983.28</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1834.630000</v>
+        <v>-1834.63</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>33831.296794</v>
+        <v>33831.296794000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.397582</v>
+        <v>9.3975819999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.830000</v>
+        <v>2366.83</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2730.900000</v>
+        <v>-2730.9</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>33842.192444</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.400609</v>
+        <v>9.4006089999999993</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.080000</v>
+        <v>2852.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3709.200000</v>
+        <v>-3709.2</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>33855.428155</v>
+        <v>33855.428155000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.404286</v>
+        <v>9.4042860000000008</v>
       </c>
       <c r="CE25" s="1">
-        <v>4279.420000</v>
+        <v>4279.42</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6078.460000</v>
+        <v>-6078.46</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>33680.799186</v>
+        <v>33680.799185999997</v>
       </c>
       <c r="B26" s="1">
-        <v>9.355778</v>
+        <v>9.3557780000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.400000</v>
+        <v>1242.4000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-289.831000</v>
+        <v>-289.83100000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>33691.222612</v>
+        <v>33691.222611999998</v>
       </c>
       <c r="G26" s="1">
-        <v>9.358673</v>
+        <v>9.3586729999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.440000</v>
+        <v>1267.44</v>
       </c>
       <c r="I26" s="1">
-        <v>-254.212000</v>
+        <v>-254.21199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>33701.717958</v>
+        <v>33701.717958000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.361588</v>
+        <v>9.3615879999999994</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-199.492000</v>
+        <v>-199.49199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>33712.296137</v>
+        <v>33712.296136999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.364527</v>
+        <v>9.3645270000000007</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.209000</v>
+        <v>-183.209</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>33722.731500</v>
+        <v>33722.731500000002</v>
       </c>
       <c r="V26" s="1">
-        <v>9.367425</v>
+        <v>9.3674250000000008</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.070000</v>
+        <v>1333.07</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.752000</v>
+        <v>-170.75200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>33733.799692</v>
+        <v>33733.799692000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.370500</v>
+        <v>9.3704999999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.880000</v>
+        <v>1351.88</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.312000</v>
+        <v>-169.31200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>33744.242461</v>
+        <v>33744.242461000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.373401</v>
+        <v>9.3734009999999994</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.120000</v>
+        <v>1365.12</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.151000</v>
+        <v>-179.15100000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>33754.827119</v>
+        <v>33754.827119000001</v>
       </c>
       <c r="AK26" s="1">
         <v>9.376341</v>
       </c>
       <c r="AL26" s="1">
-        <v>1386.150000</v>
+        <v>1386.15</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.971000</v>
+        <v>-208.971</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>33765.860630</v>
+        <v>33765.860630000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.379406</v>
+        <v>9.3794059999999995</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.820000</v>
+        <v>-252.82</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>33777.190707</v>
+        <v>33777.190707000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.382553</v>
+        <v>9.3825529999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.813000</v>
+        <v>-312.81299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>33788.475683</v>
+        <v>33788.475682999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>9.385688</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.971000</v>
+        <v>-364.971</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>33799.222006</v>
+        <v>33799.222006000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.388673</v>
+        <v>9.3886730000000007</v>
       </c>
       <c r="BF26" s="1">
-        <v>1536.990000</v>
+        <v>1536.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.623000</v>
+        <v>-613.62300000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>33809.955432</v>
+        <v>33809.955432000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.391654</v>
+        <v>9.3916540000000008</v>
       </c>
       <c r="BK26" s="1">
-        <v>1690.470000</v>
+        <v>1690.47</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1060.010000</v>
+        <v>-1060.01</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>33820.617928</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.394616</v>
+        <v>9.3946159999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1983.260000</v>
+        <v>1983.26</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1834.540000</v>
+        <v>-1834.54</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>33831.710955</v>
+        <v>33831.710955000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.397697</v>
+        <v>9.3976970000000009</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.650000</v>
+        <v>2366.65</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2730.940000</v>
+        <v>-2730.94</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>33842.618507</v>
+        <v>33842.618506999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.400727</v>
+        <v>9.4007269999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.090000</v>
+        <v>2852.09</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3709.370000</v>
+        <v>-3709.37</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>33855.968825</v>
+        <v>33855.968825000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.404436</v>
+        <v>9.4044360000000005</v>
       </c>
       <c r="CE26" s="1">
-        <v>4266.300000</v>
+        <v>4266.3</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6064.610000</v>
+        <v>-6064.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>